--- a/panels,x,y_record.xlsx
+++ b/panels,x,y_record.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -436,16 +436,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>998</v>
+        <v>1011.6</v>
       </c>
       <c r="C3">
-        <v>0.30349999999999999</v>
+        <v>0.3009</v>
       </c>
       <c r="D3">
-        <v>0.32479999999999998</v>
+        <v>0.33739999999999998</v>
       </c>
       <c r="E3">
-        <v>7073</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -470,16 +470,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1011.6</v>
+        <v>998</v>
       </c>
       <c r="C5">
-        <v>0.3009</v>
+        <v>0.30349999999999999</v>
       </c>
       <c r="D5">
-        <v>0.33739999999999998</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="E5">
-        <v>6590</v>
+        <v>7073</v>
       </c>
     </row>
   </sheetData>
